--- a/1.函数/1.1.引用/doc/1.同文件同sheet引用.xlsx
+++ b/1.函数/1.1.引用/doc/1.同文件同sheet引用.xlsx
@@ -345,16 +345,16 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:H17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="4.375" customWidth="1"/>
     <col min="4" max="4" width="5.875" customWidth="1"/>
-    <col min="5" max="5" width="4.75" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
@@ -429,6 +429,12 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>ninth*3</f>
+        <v>27</v>
+      </c>
+    </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F6">
         <f>$A$1</f>
